--- a/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
+++ b/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF5BEB2-DAE2-4BB3-B7FF-6927F60BF733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8334946-9196-4A40-A743-EB28D0818AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" firstSheet="18" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -52,18 +52,18 @@
     <sheet name="35" sheetId="37" r:id="rId37"/>
     <sheet name="36" sheetId="38" r:id="rId38"/>
     <sheet name="37" sheetId="39" r:id="rId39"/>
-    <sheet name="39" sheetId="41" r:id="rId40"/>
-    <sheet name="40" sheetId="42" r:id="rId41"/>
-    <sheet name="41" sheetId="43" r:id="rId42"/>
-    <sheet name="42" sheetId="44" r:id="rId43"/>
-    <sheet name="43" sheetId="45" r:id="rId44"/>
+    <sheet name="39" sheetId="40" r:id="rId40"/>
+    <sheet name="40" sheetId="41" r:id="rId41"/>
+    <sheet name="41" sheetId="42" r:id="rId42"/>
+    <sheet name="42" sheetId="43" r:id="rId43"/>
+    <sheet name="43" sheetId="44" r:id="rId44"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="567">
   <si>
     <t>任务单序号</t>
   </si>
@@ -134,15 +134,15 @@
     <t>1-1、核补范围内2000地形图（范围详见CAD）</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>1-2、核补范围内2000地形图（范围详见CAD）</t>
   </si>
   <si>
     <t>1-3、核补范围内2000地形图（范围详见CAD）</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>1-4、核补范围内2000地形图（范围详见CAD）</t>
   </si>
   <si>
@@ -485,6 +485,9 @@
     <t>3-1、核补范围内2000地形图（范围详见CAD）</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>3-2、核补范围内2000地形图（范围详见CAD）</t>
   </si>
   <si>
@@ -545,9 +548,6 @@
     <t>5-13核补范围内电力线塔杆位置并连线（范围详见CAD）</t>
   </si>
   <si>
-    <t>oprj</t>
-  </si>
-  <si>
     <t>5-14核补范围内电力线塔杆位置并连线（范围详见CAD）</t>
   </si>
   <si>
@@ -968,18 +968,12 @@
     <t>24-1核补范围内房屋地形（范围详见CAD）</t>
   </si>
   <si>
-    <t>返</t>
-  </si>
-  <si>
     <t>需增加</t>
   </si>
   <si>
     <t>24-2核补范围内房屋地形（范围详见CAD）</t>
   </si>
   <si>
-    <t>未返</t>
-  </si>
-  <si>
     <t>24-3核补范围内房屋地形（范围详见CAD）</t>
   </si>
   <si>
@@ -1704,6 +1698,78 @@
   </si>
   <si>
     <t>43-1核补范围内既有铁路梁底高程、道路高程及道路净空（范围详见CAD）</t>
+  </si>
+  <si>
+    <t>核补地形</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.5.23</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.24</t>
+  </si>
+  <si>
+    <t>2025.05.26</t>
+  </si>
+  <si>
+    <t>2025.05.27</t>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+  </si>
+  <si>
+    <t>道路抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>转坐标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.03</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.04</t>
+  </si>
+  <si>
+    <t>2025.06.04</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>核补通所道路地形</t>
+  </si>
+  <si>
+    <t>2025.06.05</t>
+  </si>
+  <si>
+    <t>2025.06.07</t>
+  </si>
+  <si>
+    <t>2025.06.08</t>
+  </si>
+  <si>
+    <t>2025.06.09</t>
+  </si>
+  <si>
+    <t>2025.06.10</t>
+  </si>
+  <si>
+    <t>2025.06.11</t>
+  </si>
+  <si>
+    <t>2025.06.12</t>
+  </si>
+  <si>
+    <t>2025.06.13</t>
+  </si>
+  <si>
+    <t>2025.06.15</t>
+  </si>
+  <si>
+    <t>2025.06.16</t>
   </si>
 </sst>
 </file>
@@ -2227,8 +2293,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2240,8 +2306,8 @@
     <col min="5" max="5" width="13.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="34.625" style="12" customWidth="1"/>
-    <col min="8" max="22" width="9" style="12" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="12"/>
+    <col min="8" max="23" width="9" style="12" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2444,398 +2510,601 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>546</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>549</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>550</v>
+      </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>550</v>
+      </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>550</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>550</v>
+      </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>555</v>
+      </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>555</v>
+      </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>554</v>
+      </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>557</v>
+      </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>558</v>
+      </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>559</v>
+      </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>559</v>
+      </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>560</v>
+      </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>559</v>
+      </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>560</v>
+      </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>561</v>
+      </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>560</v>
+      </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>561</v>
+      </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>562</v>
+      </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>565</v>
+      </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>566</v>
+      </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>566</v>
+      </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -3008,7 +3277,7 @@
         <v>235</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3016,7 +3285,7 @@
         <v>236</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3024,7 +3293,7 @@
         <v>237</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3078,7 +3347,7 @@
         <v>238</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,7 +3355,7 @@
         <v>239</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,7 +3363,7 @@
         <v>240</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3102,7 +3371,7 @@
         <v>241</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3110,7 +3379,7 @@
         <v>242</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,7 +3387,7 @@
         <v>243</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3126,7 +3395,7 @@
         <v>244</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3134,7 +3403,7 @@
         <v>245</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3142,7 +3411,7 @@
         <v>246</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3150,7 +3419,7 @@
         <v>247</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3158,7 +3427,7 @@
         <v>248</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,7 +3435,7 @@
         <v>249</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3174,7 +3443,7 @@
         <v>250</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,7 +3451,7 @@
         <v>251</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3190,7 +3459,7 @@
         <v>252</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3198,7 +3467,7 @@
         <v>253</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3475,7 @@
         <v>254</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3214,7 +3483,7 @@
         <v>255</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3222,7 +3491,7 @@
         <v>256</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3230,7 +3499,7 @@
         <v>257</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,7 +3507,7 @@
         <v>258</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3246,7 +3515,7 @@
         <v>259</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3254,7 +3523,7 @@
         <v>260</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3262,7 +3531,7 @@
         <v>261</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,7 +3539,7 @@
         <v>262</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3278,7 +3547,7 @@
         <v>263</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3286,7 +3555,7 @@
         <v>264</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3600,7 @@
         <v>265</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3453,18 +3722,24 @@
       <c r="A2" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3472,17 +3747,23 @@
         <v>269</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3590,7 +3871,7 @@
         <v>272</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3598,7 +3879,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3606,7 +3887,7 @@
         <v>274</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3614,7 +3895,7 @@
         <v>275</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3622,7 +3903,7 @@
         <v>276</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3630,7 +3911,7 @@
         <v>277</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3638,7 +3919,7 @@
         <v>278</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,7 +4024,7 @@
         <v>279</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3866,7 +4147,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3988,7 +4269,7 @@
         <v>281</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3996,7 +4277,7 @@
         <v>282</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4115,7 +4396,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4123,7 +4404,7 @@
         <v>284</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4242,7 +4523,7 @@
         <v>285</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4250,7 +4531,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4351,8 +4632,8 @@
     <col min="4" max="4" width="9" style="12" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="12" customWidth="1"/>
-    <col min="7" max="21" width="9" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="12"/>
+    <col min="7" max="22" width="9" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4380,7 +4661,9 @@
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
@@ -4388,9 +4671,11 @@
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -4398,10 +4683,10 @@
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4410,13 +4695,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4501,7 +4789,7 @@
         <v>287</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4623,7 +4911,7 @@
         <v>288</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4631,7 +4919,7 @@
         <v>289</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4639,7 +4927,7 @@
         <v>290</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4647,7 +4935,7 @@
         <v>291</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4655,7 +4943,7 @@
         <v>292</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4663,7 +4951,7 @@
         <v>293</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4671,7 +4959,7 @@
         <v>294</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4679,7 +4967,7 @@
         <v>295</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4780,7 +5068,7 @@
         <v>296</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4909,7 +5197,7 @@
         <v>297</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4917,7 +5205,7 @@
         <v>298</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5042,7 +5330,7 @@
         <v>299</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5171,121 +5459,152 @@
         <v>300</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>301</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="23"/>
+        <v>303</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="D4" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="23"/>
+        <v>304</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="23"/>
+        <v>305</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" s="23"/>
+        <v>306</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="23"/>
+        <v>307</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5353,18 +5672,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5486,65 +5805,90 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="23"/>
+        <v>321</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="23"/>
+        <v>322</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B4" s="23"/>
+        <v>323</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="23"/>
+        <v>324</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="23"/>
+        <v>325</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="23"/>
+        <v>326</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="23"/>
+        <v>327</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="23"/>
+        <v>328</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5634,112 +5978,178 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>355</v>
+      <c r="B23" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5783,7 +6193,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5872,8 +6285,8 @@
     <col min="4" max="4" width="9" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="5" customWidth="1"/>
-    <col min="7" max="21" width="9" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="5"/>
+    <col min="7" max="22" width="9" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5901,7 +6314,9 @@
       <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -5911,7 +6326,9 @@
       <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -5921,7 +6338,9 @@
       <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -5931,7 +6350,9 @@
       <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -5941,7 +6362,9 @@
       <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -5951,7 +6374,9 @@
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -5961,7 +6386,9 @@
       <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -5971,7 +6398,9 @@
       <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -5981,7 +6410,9 @@
       <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -5991,7 +6422,9 @@
       <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -6001,7 +6434,9 @@
       <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -6011,7 +6446,9 @@
       <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -6020,7 +6457,9 @@
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -6029,7 +6468,9 @@
       <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -6038,7 +6479,9 @@
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -6047,7 +6490,9 @@
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -6056,7 +6501,9 @@
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -6065,7 +6512,9 @@
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6074,7 +6523,9 @@
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -6083,7 +6534,9 @@
       <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6092,7 +6545,9 @@
       <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -6101,7 +6556,9 @@
       <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -6110,7 +6567,9 @@
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -6119,7 +6578,9 @@
       <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -6128,7 +6589,9 @@
       <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26"/>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -6137,7 +6600,9 @@
       <c r="B27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -6146,7 +6611,9 @@
       <c r="B28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -6155,7 +6622,9 @@
       <c r="B29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C29"/>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -6164,7 +6633,9 @@
       <c r="B30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -6173,7 +6644,9 @@
       <c r="B31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C31"/>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -6182,7 +6655,9 @@
       <c r="B32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -6191,7 +6666,9 @@
       <c r="B33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C33"/>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -6200,7 +6677,9 @@
       <c r="B34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C34"/>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -6209,7 +6688,9 @@
       <c r="B35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -6218,7 +6699,9 @@
       <c r="B36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -6227,7 +6710,9 @@
       <c r="B37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -6236,7 +6721,9 @@
       <c r="B38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6245,7 +6732,9 @@
       <c r="B39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6254,7 +6743,9 @@
       <c r="B40" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C40"/>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6263,7 +6754,9 @@
       <c r="B41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C41"/>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6272,7 +6765,9 @@
       <c r="B42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C42"/>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6281,7 +6776,9 @@
       <c r="B43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C43"/>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6290,7 +6787,9 @@
       <c r="B44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C44"/>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6299,6 +6798,9 @@
       <c r="B45" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6307,7 +6809,9 @@
       <c r="B46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C46"/>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6316,7 +6820,9 @@
       <c r="B47" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C47"/>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6325,7 +6831,9 @@
       <c r="B48" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C48"/>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6334,7 +6842,9 @@
       <c r="B49" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6343,7 +6853,9 @@
       <c r="B50" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6352,7 +6864,9 @@
       <c r="B51" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6361,7 +6875,9 @@
       <c r="B52" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C52"/>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6370,7 +6886,9 @@
       <c r="B53" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C53"/>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6379,7 +6897,9 @@
       <c r="B54" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -6388,7 +6908,9 @@
       <c r="B55" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C55"/>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -6397,285 +6919,456 @@
       <c r="B56" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
         <v>138</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6723,207 +7416,330 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>397</v>
+      <c r="B42" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -6964,67 +7780,106 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>409</v>
+        <v>407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7083,27 +7938,42 @@
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7144,57 +8014,90 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>423</v>
+        <v>421</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>425</v>
+        <v>423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7235,182 +8138,290 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>429</v>
+        <v>427</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>437</v>
+        <v>435</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>440</v>
+        <v>438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>462</v>
+      <c r="B37" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7451,107 +8462,107 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7637,12 +8648,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7784,42 +8801,66 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>467</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>468</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7859,12 +8900,18 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7904,47 +8951,74 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>477</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>478</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>480</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>481</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>482</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7988,9 +9062,15 @@
       <c r="A2" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8006,7 +9086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -8038,137 +9118,218 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>485</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>489</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>494</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>497</v>
+        <v>495</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>496</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>511</v>
+      <c r="B28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8178,7 +9339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -8208,82 +9369,130 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>512</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>515</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>516</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>520</v>
+        <v>518</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>521</v>
+        <v>519</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>522</v>
+        <v>520</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>523</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>525</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8293,7 +9502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -8323,42 +9532,66 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>528</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>529</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>530</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>533</v>
+        <v>531</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>532</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>535</v>
+        <v>533</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8368,7 +9601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -8398,52 +9631,82 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>536</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>537</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>538</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>539</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>540</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>543</v>
+        <v>541</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>542</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8453,11 +9716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -8485,7 +9748,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8530,50 +9796,50 @@
     </row>
     <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8620,415 +9886,659 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>229</v>
+      </c>
+      <c r="B83" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -9078,7 +10588,7 @@
         <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9143,7 +10653,7 @@
         <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9151,7 +10661,7 @@
         <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9213,7 +10723,7 @@
         <v>233</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9221,7 +10731,7 @@
         <v>234</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
+++ b/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8334946-9196-4A40-A743-EB28D0818AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ADBB91C-B0E4-418B-B894-A9B21F1AF189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" firstSheet="6" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="584">
   <si>
     <t>任务单序号</t>
   </si>
@@ -116,6 +116,63 @@
     <t>2025.5.22</t>
   </si>
   <si>
+    <t>2025.5.23</t>
+  </si>
+  <si>
+    <t>道路抄平</t>
+  </si>
+  <si>
+    <t>2025.05.24</t>
+  </si>
+  <si>
+    <t>2025.05.26</t>
+  </si>
+  <si>
+    <t>2025.05.27</t>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+  </si>
+  <si>
+    <t>2025.06.03</t>
+  </si>
+  <si>
+    <t>2025.06.04</t>
+  </si>
+  <si>
+    <t>2025.06.05</t>
+  </si>
+  <si>
+    <t>2025.06.07</t>
+  </si>
+  <si>
+    <t>2025.06.08</t>
+  </si>
+  <si>
+    <t>2025.06.09</t>
+  </si>
+  <si>
+    <t>核补通所道路地形</t>
+  </si>
+  <si>
+    <t>2025.06.10</t>
+  </si>
+  <si>
+    <t>2025.06.11</t>
+  </si>
+  <si>
+    <t>2025.06.12</t>
+  </si>
+  <si>
+    <t>2025.06.13</t>
+  </si>
+  <si>
+    <t>2025.06.15</t>
+  </si>
+  <si>
+    <t>2025.06.16</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1448,9 +1505,6 @@
     <t>32-36核补范围内电力塔位置，塔高，塔脚地形(范围详见CAD图) （优先测量）</t>
   </si>
   <si>
-    <t>核补此处道路地形并超平</t>
-  </si>
-  <si>
     <t>34-1核补范围内房屋地形（范围详见CAD）</t>
   </si>
   <si>
@@ -1700,76 +1754,88 @@
     <t>43-1核补范围内既有铁路梁底高程、道路高程及道路净空（范围详见CAD）</t>
   </si>
   <si>
-    <t>核补地形</t>
+    <t>33-1核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.5.23</t>
+    <t>33-2核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.05.24</t>
-  </si>
-  <si>
-    <t>2025.05.26</t>
-  </si>
-  <si>
-    <t>2025.05.27</t>
-  </si>
-  <si>
-    <t>2025.06.01</t>
-  </si>
-  <si>
-    <t>道路抄平</t>
+    <t>33-3核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>转坐标</t>
+    <t>33-4核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.06.03</t>
+    <t>33-5核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.06.04</t>
-  </si>
-  <si>
-    <t>2025.06.04</t>
+    <t>33-6核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>核补通所道路地形</t>
-  </si>
-  <si>
-    <t>2025.06.05</t>
-  </si>
-  <si>
-    <t>2025.06.07</t>
-  </si>
-  <si>
-    <t>2025.06.08</t>
-  </si>
-  <si>
-    <t>2025.06.09</t>
-  </si>
-  <si>
-    <t>2025.06.10</t>
-  </si>
-  <si>
-    <t>2025.06.11</t>
-  </si>
-  <si>
-    <t>2025.06.12</t>
-  </si>
-  <si>
-    <t>2025.06.13</t>
-  </si>
-  <si>
-    <t>2025.06.15</t>
-  </si>
-  <si>
-    <t>2025.06.16</t>
+    <t>33-7核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-8核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-9核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-10核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-11核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-12核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-13核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-14核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-15核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-16核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-17核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-18核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-19核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-20核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-21核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2293,8 +2359,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2306,8 +2372,8 @@
     <col min="5" max="5" width="13.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="34.625" style="12" customWidth="1"/>
-    <col min="8" max="23" width="9" style="12" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="12"/>
+    <col min="8" max="24" width="9" style="12" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2346,7 +2412,9 @@
       <c r="D2" s="16">
         <v>5</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="16">
+        <v>5</v>
+      </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
@@ -2363,7 +2431,9 @@
       <c r="D3" s="16">
         <v>111</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16">
+        <v>111</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
@@ -2380,7 +2450,9 @@
       <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
@@ -2397,7 +2469,9 @@
       <c r="D5" s="16">
         <v>6</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
@@ -2414,7 +2488,9 @@
       <c r="D6" s="16">
         <v>82</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
@@ -2488,7 +2564,9 @@
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
@@ -2505,7 +2583,9 @@
       <c r="D11" s="16">
         <v>27</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <v>27</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
@@ -2514,13 +2594,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>545</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
@@ -2529,13 +2613,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>551</v>
+        <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="16">
+        <v>6</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
@@ -2547,10 +2635,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="16">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16">
+        <v>7</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
@@ -2562,10 +2654,14 @@
         <v>9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
@@ -2577,10 +2673,14 @@
         <v>9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
@@ -2592,10 +2692,14 @@
         <v>9</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
@@ -2604,13 +2708,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
@@ -2619,13 +2727,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
@@ -2634,13 +2746,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
@@ -2649,13 +2765,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8</v>
+      </c>
+      <c r="E21" s="16">
+        <v>8</v>
+      </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
@@ -2664,13 +2784,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
@@ -2679,13 +2803,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2</v>
+      </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
@@ -2694,13 +2822,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
@@ -2712,10 +2844,14 @@
         <v>9</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="16">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
@@ -2724,13 +2860,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
@@ -2742,10 +2882,14 @@
         <v>9</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="16">
+        <v>11</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4</v>
+      </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
@@ -2757,10 +2901,14 @@
         <v>9</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="16">
+        <v>23</v>
+      </c>
+      <c r="E28" s="16">
+        <v>7</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
@@ -2772,10 +2920,14 @@
         <v>9</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="16">
+        <v>41</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
@@ -2787,10 +2939,14 @@
         <v>9</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="16">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16">
+        <v>5</v>
+      </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
@@ -2802,10 +2958,14 @@
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
@@ -2817,10 +2977,14 @@
         <v>9</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="16">
+        <v>11</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6</v>
+      </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
@@ -2832,10 +2996,14 @@
         <v>9</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D33" s="16">
+        <v>36</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
@@ -2844,13 +3012,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>556</v>
+        <v>29</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
@@ -2862,10 +3034,14 @@
         <v>9</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="16">
+        <v>2</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
@@ -2877,10 +3053,14 @@
         <v>9</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="D36" s="16">
+        <v>8</v>
+      </c>
+      <c r="E36" s="16">
+        <v>6</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
@@ -2892,10 +3072,14 @@
         <v>9</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
@@ -2907,10 +3091,14 @@
         <v>9</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D38" s="16">
+        <v>9</v>
+      </c>
+      <c r="E38" s="16">
+        <v>8</v>
+      </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
@@ -2922,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>563</v>
+        <v>32</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -2937,10 +3125,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D40" s="16">
+        <v>27</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
@@ -2952,10 +3144,14 @@
         <v>9</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D41" s="16">
+        <v>16</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
@@ -2967,10 +3163,14 @@
         <v>9</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="D42" s="16">
+        <v>8</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
@@ -2982,10 +3182,14 @@
         <v>9</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="D43" s="16">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
@@ -2997,10 +3201,14 @@
         <v>9</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
@@ -3257,16 +3465,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3274,26 +3482,26 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,16 +3535,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3344,218 +3552,218 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3580,16 +3788,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3597,10 +3805,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3703,16 +3911,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3720,50 +3928,50 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3851,16 +4059,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3868,58 +4076,58 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,16 +4212,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4021,10 +4229,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4127,16 +4335,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4144,10 +4352,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4249,16 +4457,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4266,18 +4474,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4376,16 +4584,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4393,18 +4601,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4503,16 +4711,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4520,18 +4728,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,25 +4840,25 @@
     <col min="4" max="4" width="9" style="12" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="12" customWidth="1"/>
-    <col min="7" max="22" width="9" style="12" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="12"/>
+    <col min="7" max="23" width="9" style="12" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -4659,10 +4867,10 @@
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -4671,10 +4879,10 @@
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4683,28 +4891,28 @@
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,16 +4977,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4786,10 +4994,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4891,16 +5099,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4908,66 +5116,66 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5048,16 +5256,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5065,10 +5273,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5177,16 +5385,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5194,18 +5402,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5310,16 +5518,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5327,10 +5535,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5439,16 +5647,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5456,155 +5664,155 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5655,16 +5863,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5672,18 +5880,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5788,16 +5996,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5805,90 +6013,90 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5961,16 +6169,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5978,178 +6186,178 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6176,16 +6384,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -6193,10 +6401,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6285,25 +6493,25 @@
     <col min="4" max="4" width="9" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="5" customWidth="1"/>
-    <col min="7" max="22" width="9" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="5"/>
+    <col min="7" max="23" width="9" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>6</v>
@@ -6312,10 +6520,10 @@
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -6324,10 +6532,10 @@
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -6336,10 +6544,10 @@
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6348,10 +6556,10 @@
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -6360,10 +6568,10 @@
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6372,10 +6580,10 @@
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6384,10 +6592,10 @@
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -6396,10 +6604,10 @@
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6408,10 +6616,10 @@
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6420,10 +6628,10 @@
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6432,10 +6640,10 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6444,10 +6652,10 @@
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6455,10 +6663,10 @@
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6466,10 +6674,10 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6477,10 +6685,10 @@
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6488,10 +6696,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -6499,10 +6707,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6510,10 +6718,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6521,10 +6729,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6532,10 +6740,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6543,10 +6751,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6554,10 +6762,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6565,10 +6773,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6576,10 +6784,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6587,10 +6795,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -6598,10 +6806,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -6609,10 +6817,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6620,10 +6828,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -6631,10 +6839,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6642,10 +6850,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -6653,10 +6861,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -6664,10 +6872,10 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -6675,10 +6883,10 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -6686,10 +6894,10 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -6697,10 +6905,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -6708,10 +6916,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -6719,10 +6927,10 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -6730,10 +6938,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -6741,10 +6949,10 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -6752,10 +6960,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -6763,10 +6971,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -6774,10 +6982,10 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -6785,10 +6993,10 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -6796,10 +7004,10 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -6807,10 +7015,10 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -6818,10 +7026,10 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -6829,10 +7037,10 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -6840,10 +7048,10 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -6851,10 +7059,10 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -6862,10 +7070,10 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -6873,10 +7081,10 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -6884,10 +7092,10 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -6895,10 +7103,10 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -6906,10 +7114,10 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -6917,458 +7125,458 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="9" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7399,16 +7607,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -7416,330 +7624,330 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7763,16 +7971,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -7780,106 +7988,106 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7921,16 +8129,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -7938,42 +8146,42 @@
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7997,16 +8205,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8014,90 +8222,90 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8121,16 +8329,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8138,290 +8346,290 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8434,8 +8642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8445,124 +8653,124 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>461</v>
+      <c r="A2" s="23" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>461</v>
+      <c r="A3" s="23" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>461</v>
+      <c r="A4" s="23" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>461</v>
+      <c r="A5" s="23" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>461</v>
+      <c r="A6" s="23" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>461</v>
+      <c r="A7" s="23" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>461</v>
+      <c r="A8" s="23" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>461</v>
+      <c r="A9" s="23" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>461</v>
+      <c r="A10" s="23" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>461</v>
+      <c r="A11" s="23" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>461</v>
+      <c r="A12" s="23" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>461</v>
+      <c r="A13" s="23" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>461</v>
+      <c r="A14" s="23" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>461</v>
+      <c r="A15" s="23" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>461</v>
+      <c r="A16" s="23" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>461</v>
+      <c r="A17" s="23" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>461</v>
+      <c r="A18" s="23" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>461</v>
+      <c r="A19" s="23" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>461</v>
+      <c r="A20" s="23" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>461</v>
+      <c r="A21" s="23" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>461</v>
+      <c r="A22" s="23" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8631,16 +8839,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8648,18 +8856,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8784,16 +8992,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8801,66 +9009,66 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -8883,16 +9091,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8900,18 +9108,18 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8934,16 +9142,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8951,74 +9159,74 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9043,16 +9251,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9060,18 +9268,18 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9101,16 +9309,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9118,218 +9326,218 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9352,16 +9560,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9369,130 +9577,130 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9515,16 +9723,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9532,66 +9740,66 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9614,16 +9822,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9631,82 +9839,82 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9731,16 +9939,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9748,10 +9956,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9779,16 +9987,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9796,50 +10004,50 @@
     </row>
     <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9869,16 +10077,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9886,659 +10094,659 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -10568,16 +10776,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -10585,10 +10793,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10633,16 +10841,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -10650,18 +10858,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10703,16 +10911,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -10720,18 +10928,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
+++ b/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ADBB91C-B0E4-418B-B894-A9B21F1AF189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F925AF18-DD08-4FED-A516-8CE60F4FA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" firstSheet="6" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -52,18 +52,19 @@
     <sheet name="35" sheetId="37" r:id="rId37"/>
     <sheet name="36" sheetId="38" r:id="rId38"/>
     <sheet name="37" sheetId="39" r:id="rId39"/>
-    <sheet name="39" sheetId="40" r:id="rId40"/>
-    <sheet name="40" sheetId="41" r:id="rId41"/>
-    <sheet name="41" sheetId="42" r:id="rId42"/>
-    <sheet name="42" sheetId="43" r:id="rId43"/>
-    <sheet name="43" sheetId="44" r:id="rId44"/>
+    <sheet name="38" sheetId="45" r:id="rId40"/>
+    <sheet name="39" sheetId="40" r:id="rId41"/>
+    <sheet name="40" sheetId="41" r:id="rId42"/>
+    <sheet name="41" sheetId="42" r:id="rId43"/>
+    <sheet name="42" sheetId="43" r:id="rId44"/>
+    <sheet name="43" sheetId="44" r:id="rId45"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="611">
   <si>
     <t>任务单序号</t>
   </si>
@@ -1505,6 +1506,69 @@
     <t>32-36核补范围内电力塔位置，塔高，塔脚地形(范围详见CAD图) （优先测量）</t>
   </si>
   <si>
+    <t>33-1核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-2核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-3核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-4核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-5核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-6核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-7核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-8核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-9核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-10核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-11核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-12核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-13核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-14核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-15核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-16核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-17核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-18核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-19核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-20核补此处道路地形并抄平</t>
+  </si>
+  <si>
+    <t>33-21核补此处道路地形并抄平</t>
+  </si>
+  <si>
     <t>34-1核补范围内房屋地形（范围详见CAD）</t>
   </si>
   <si>
@@ -1754,88 +1818,85 @@
     <t>43-1核补范围内既有铁路梁底高程、道路高程及道路净空（范围详见CAD）</t>
   </si>
   <si>
-    <t>33-1核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-2核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-3核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-4核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-5核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-6核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-7核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-8核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-9核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-10核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-11核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-12核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-13核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-14核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-15核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-16核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-17核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-18核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-19核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-20核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-21核补此处道路地形并抄平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>38-1核补范围内电力线、通信线塔高、位置、垂度-线路交叉</t>
+  </si>
+  <si>
+    <t>38-2核补范围内电力线、通信线塔高、位置、垂度-线路交叉</t>
+  </si>
+  <si>
+    <t>38-3核补范围内电力线、通信线塔高、位置、垂度-线路交叉</t>
+  </si>
+  <si>
+    <t>38-4核补范围内电力线、通信线塔高、位置、垂度-线路交叉</t>
+  </si>
+  <si>
+    <t>38-5核补范围内电力线、通信线塔高、位置、垂度-线路交叉</t>
+  </si>
+  <si>
+    <t>38-6核补范围内电力线、通信线塔高、位置、垂度-线路交叉</t>
+  </si>
+  <si>
+    <t>38-7核补范围内电力线、通信线塔高、位置、垂度-线路交叉</t>
+  </si>
+  <si>
+    <t>38-8核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-9核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-10核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-11核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-12核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-13核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-14核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-15核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-16核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-17核补范围内水井位置</t>
+  </si>
+  <si>
+    <t>38-18核补范围内坟墓位置</t>
+  </si>
+  <si>
+    <t>38-19核补范围内变压器位置</t>
+  </si>
+  <si>
+    <t>38-20核补范围内路牌位置</t>
+  </si>
+  <si>
+    <t>38-21核补范围内摄像头、路牌位置</t>
+  </si>
+  <si>
+    <t>38-22核补范围内摄像头位置</t>
+  </si>
+  <si>
+    <t>38-23核补范围内摄像头位置</t>
+  </si>
+  <si>
+    <t>38-24核补范围内路牌位置</t>
+  </si>
+  <si>
+    <t>38-25核补范围内变压器位置</t>
+  </si>
+  <si>
+    <t>38-26核补范围内摄像头、路牌位置</t>
+  </si>
+  <si>
+    <t>38-27核补范围内坟墓位置</t>
   </si>
 </sst>
 </file>
@@ -2359,8 +2420,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2372,8 +2433,8 @@
     <col min="5" max="5" width="13.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="34.625" style="12" customWidth="1"/>
-    <col min="8" max="24" width="9" style="12" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="12"/>
+    <col min="8" max="25" width="9" style="12" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3018,7 +3079,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16">
         <v>0</v>
@@ -4840,8 +4901,8 @@
     <col min="4" max="4" width="9" style="12" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="12" customWidth="1"/>
-    <col min="7" max="23" width="9" style="12" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="12"/>
+    <col min="7" max="24" width="9" style="12" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6493,8 +6554,8 @@
     <col min="4" max="4" width="9" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="5" customWidth="1"/>
-    <col min="7" max="23" width="9" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="5"/>
+    <col min="7" max="24" width="9" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8642,7 +8703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -8670,137 +8731,200 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>563</v>
+        <v>480</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>564</v>
+        <v>481</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>565</v>
+        <v>482</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>566</v>
+        <v>483</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>567</v>
+        <v>484</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>568</v>
+        <v>485</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>569</v>
+        <v>486</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>570</v>
+        <v>487</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>571</v>
+        <v>488</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>572</v>
+        <v>489</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>573</v>
+        <v>490</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>574</v>
+        <v>491</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>575</v>
+        <v>492</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>576</v>
+        <v>493</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8856,7 +8980,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -8864,7 +8988,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -9009,7 +9133,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9017,7 +9141,7 @@
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
         <v>159</v>
@@ -9025,7 +9149,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -9033,7 +9157,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -9041,7 +9165,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
         <v>159</v>
@@ -9049,7 +9173,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -9057,7 +9181,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -9065,7 +9189,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -9108,7 +9232,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -9116,7 +9240,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
         <v>159</v>
@@ -9159,7 +9283,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9167,7 +9291,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -9175,7 +9299,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -9183,7 +9307,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -9191,7 +9315,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -9199,7 +9323,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -9207,7 +9331,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
         <v>159</v>
@@ -9215,7 +9339,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -9223,7 +9347,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -9294,6 +9418,177 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0984359B-0164-408A-BC67-70975B8CF5F7}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E28"/>
@@ -9326,7 +9621,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -9334,7 +9629,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
         <v>159</v>
@@ -9342,7 +9637,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -9350,7 +9645,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
         <v>159</v>
@@ -9358,7 +9653,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s">
         <v>159</v>
@@ -9366,7 +9661,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s">
         <v>159</v>
@@ -9374,7 +9669,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="B8" t="s">
         <v>159</v>
@@ -9382,7 +9677,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s">
         <v>159</v>
@@ -9390,7 +9685,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
         <v>159</v>
@@ -9398,7 +9693,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>159</v>
@@ -9406,7 +9701,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
         <v>159</v>
@@ -9414,7 +9709,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
         <v>159</v>
@@ -9422,7 +9717,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="B14" t="s">
         <v>159</v>
@@ -9430,7 +9725,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s">
         <v>159</v>
@@ -9438,7 +9733,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="B16" t="s">
         <v>159</v>
@@ -9446,7 +9741,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="B17" t="s">
         <v>159</v>
@@ -9454,7 +9749,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
         <v>159</v>
@@ -9462,7 +9757,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="B19" t="s">
         <v>159</v>
@@ -9470,7 +9765,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="B20" t="s">
         <v>159</v>
@@ -9478,7 +9773,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="B21" t="s">
         <v>159</v>
@@ -9486,7 +9781,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -9494,7 +9789,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="B23" t="s">
         <v>159</v>
@@ -9502,7 +9797,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="B24" t="s">
         <v>159</v>
@@ -9510,7 +9805,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="B25" t="s">
         <v>159</v>
@@ -9518,7 +9813,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="B26" t="s">
         <v>159</v>
@@ -9526,7 +9821,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="B27" t="s">
         <v>159</v>
@@ -9534,7 +9829,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="B28" t="s">
         <v>159</v>
@@ -9546,7 +9841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E17"/>
@@ -9577,7 +9872,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -9585,7 +9880,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
         <v>159</v>
@@ -9593,7 +9888,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -9601,7 +9896,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="B5" t="s">
         <v>159</v>
@@ -9609,7 +9904,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="B6" t="s">
         <v>159</v>
@@ -9617,7 +9912,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s">
         <v>159</v>
@@ -9625,7 +9920,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
         <v>159</v>
@@ -9633,7 +9928,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s">
         <v>159</v>
@@ -9641,7 +9936,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
         <v>159</v>
@@ -9649,7 +9944,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
         <v>159</v>
@@ -9657,7 +9952,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s">
         <v>159</v>
@@ -9665,7 +9960,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="B13" t="s">
         <v>159</v>
@@ -9673,7 +9968,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s">
         <v>159</v>
@@ -9681,7 +9976,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="B15" t="s">
         <v>159</v>
@@ -9689,7 +9984,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="B16" t="s">
         <v>159</v>
@@ -9697,7 +9992,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B17" t="s">
         <v>159</v>
@@ -9709,7 +10004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
@@ -9740,7 +10035,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -9748,7 +10043,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
         <v>159</v>
@@ -9756,7 +10051,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -9764,7 +10059,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
         <v>159</v>
@@ -9772,7 +10067,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s">
         <v>159</v>
@@ -9780,7 +10075,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="B7" t="s">
         <v>159</v>
@@ -9788,7 +10083,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="B8" t="s">
         <v>159</v>
@@ -9796,7 +10091,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
         <v>159</v>
@@ -9808,7 +10103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E11"/>
@@ -9839,7 +10134,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -9847,7 +10142,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
         <v>159</v>
@@ -9855,7 +10150,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -9863,7 +10158,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s">
         <v>159</v>
@@ -9871,7 +10166,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
         <v>159</v>
@@ -9879,7 +10174,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="B7" t="s">
         <v>159</v>
@@ -9887,7 +10182,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="B8" t="s">
         <v>159</v>
@@ -9895,7 +10190,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="B9" t="s">
         <v>159</v>
@@ -9903,7 +10198,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="B10" t="s">
         <v>159</v>
@@ -9911,7 +10206,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B11" t="s">
         <v>159</v>
@@ -9923,7 +10218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E3"/>
@@ -9956,7 +10251,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>

--- a/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
+++ b/ZS-沪乍杭-线路任务单一览表-补定测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F925AF18-DD08-4FED-A516-8CE60F4FA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7847E93-90E1-477D-ACF9-F396C02480BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" firstSheet="11" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -2420,8 +2420,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -9421,7 +9421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0984359B-0164-408A-BC67-70975B8CF5F7}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -9447,12 +9447,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>585</v>
       </c>
